--- a/表B.xlsx
+++ b/表B.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>佣金支付明细清单</t>
   </si>
@@ -88,19 +88,50 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>收款公司A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款公司B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">沈AA  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PYPUB00001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PYPUB00002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CXXX        </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CYYY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>33010802</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>有限公司B</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>收款公司A</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收款公司B</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">沈AA  </t>
+    <t>有限公司C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款公司C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CZZZ</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -108,18 +139,49 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>沈CC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>33010803</t>
+  </si>
+  <si>
+    <t>33010804</t>
+  </si>
+  <si>
+    <t>有限公司D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有限公司E</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款公司D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款公司E</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAAA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CBBB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈DD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈EE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>PYPUB00001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PYPUB00002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CXXX        </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CYYY</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -201,7 +263,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -214,6 +276,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -587,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -607,36 +672,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="22.5">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -656,9 +721,9 @@
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -675,88 +740,88 @@
       <c r="R3" s="3"/>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="7"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="7"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="8"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="8"/>
+      <c r="R6" s="9"/>
     </row>
     <row r="7" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="2" t="s">
@@ -778,22 +843,22 @@
         <v>2</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I7" s="2">
         <v>123</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -809,8 +874,8 @@
       <c r="B8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>23</v>
+      <c r="C8" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="D8" s="4">
         <v>123</v>
@@ -818,22 +883,22 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I8" s="4">
         <v>789</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="4">
+        <v>2847.65</v>
+      </c>
+      <c r="L8" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -843,49 +908,171 @@
       <c r="R8" s="4"/>
     </row>
     <row r="9" spans="1:18" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="7">
+        <v>456</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="7">
+        <v>101112</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="7">
+        <v>47.65</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+    </row>
+    <row r="10" spans="1:18" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="7">
+        <v>789</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="7">
+        <v>111213</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="7">
+        <v>7.65</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+    </row>
+    <row r="11" spans="1:18" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="7">
+        <v>101112</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="7">
+        <v>21314</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" s="7">
+        <v>147.65</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+    </row>
+    <row r="12" spans="1:18" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="L4:L6"/>
     <mergeCell ref="M4:Q4"/>
     <mergeCell ref="M5:Q5"/>
     <mergeCell ref="R4:R6"/>
@@ -902,8 +1089,6 @@
     <mergeCell ref="H4:H6"/>
     <mergeCell ref="I4:I6"/>
     <mergeCell ref="J4:J6"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="L4:L6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
